--- a/kvision/ksample/mytable/docmind/002_90afe.xlsx
+++ b/kvision/ksample/mytable/docmind/002_90afe.xlsx
@@ -39,7 +39,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -129,11 +129,25 @@
         <color rgb="00FF0000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -424,6 +438,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -807,252 +827,252 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="96" t="n"/>
-      <c r="B1" s="97" t="inlineStr">
+      <c r="A1" s="98" t="n"/>
+      <c r="B1" s="99" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="C1" s="97" t="inlineStr">
+      <c r="C1" s="99" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="D1" s="97" t="inlineStr">
+      <c r="D1" s="99" t="inlineStr">
         <is>
           <t>2018E</t>
         </is>
       </c>
-      <c r="E1" s="97" t="inlineStr">
+      <c r="E1" s="99" t="inlineStr">
         <is>
           <t>2019E</t>
         </is>
       </c>
-      <c r="F1" s="97" t="inlineStr">
+      <c r="F1" s="99" t="inlineStr">
         <is>
           <t>2020E</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="97" t="inlineStr">
+      <c r="A2" s="99" t="inlineStr">
         <is>
           <t>营业收入(百万元)</t>
         </is>
       </c>
-      <c r="B2" s="97" t="inlineStr">
+      <c r="B2" s="99" t="inlineStr">
         <is>
           <t>119</t>
         </is>
       </c>
-      <c r="C2" s="97" t="inlineStr">
+      <c r="C2" s="99" t="inlineStr">
         <is>
           <t>126</t>
         </is>
       </c>
-      <c r="D2" s="97" t="inlineStr">
+      <c r="D2" s="99" t="inlineStr">
         <is>
           <t>128</t>
         </is>
       </c>
-      <c r="E2" s="97" t="inlineStr">
+      <c r="E2" s="99" t="inlineStr">
         <is>
           <t>141</t>
         </is>
       </c>
-      <c r="F2" s="97" t="inlineStr">
+      <c r="F2" s="99" t="inlineStr">
         <is>
           <t>161</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="97" t="inlineStr">
+      <c r="A3" s="99" t="inlineStr">
         <is>
           <t>增长率(%)</t>
         </is>
       </c>
-      <c r="B3" s="97" t="inlineStr">
+      <c r="B3" s="99" t="inlineStr">
         <is>
           <t>7%</t>
         </is>
       </c>
-      <c r="C3" s="97" t="inlineStr">
+      <c r="C3" s="99" t="inlineStr">
         <is>
           <t>7%</t>
         </is>
       </c>
-      <c r="D3" s="97" t="inlineStr">
+      <c r="D3" s="99" t="inlineStr">
         <is>
           <t>1%</t>
         </is>
       </c>
-      <c r="E3" s="97" t="inlineStr">
+      <c r="E3" s="99" t="inlineStr">
         <is>
           <t>11%</t>
         </is>
       </c>
-      <c r="F3" s="97" t="inlineStr">
+      <c r="F3" s="99" t="inlineStr">
         <is>
           <t>14%</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="97" t="inlineStr">
+      <c r="A4" s="99" t="inlineStr">
         <is>
           <t>净利润(百万元)</t>
         </is>
       </c>
-      <c r="B4" s="97" t="inlineStr">
+      <c r="B4" s="99" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="C4" s="97" t="inlineStr">
+      <c r="C4" s="99" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="D4" s="97" t="inlineStr">
+      <c r="D4" s="99" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="E4" s="97" t="inlineStr">
+      <c r="E4" s="99" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="F4" s="97" t="inlineStr">
+      <c r="F4" s="99" t="inlineStr">
         <is>
           <t>76</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="97" t="inlineStr">
+      <c r="A5" s="99" t="inlineStr">
         <is>
           <t>增长率(%)</t>
         </is>
       </c>
-      <c r="B5" s="97" t="inlineStr">
+      <c r="B5" s="99" t="inlineStr">
         <is>
           <t>-120%</t>
         </is>
       </c>
-      <c r="C5" s="97" t="inlineStr">
+      <c r="C5" s="99" t="inlineStr">
         <is>
           <t>21%</t>
         </is>
       </c>
-      <c r="D5" s="97" t="inlineStr">
+      <c r="D5" s="99" t="inlineStr">
         <is>
           <t>21%</t>
         </is>
       </c>
-      <c r="E5" s="97" t="inlineStr">
+      <c r="E5" s="99" t="inlineStr">
         <is>
           <t>15%</t>
         </is>
       </c>
-      <c r="F5" s="97" t="inlineStr">
+      <c r="F5" s="99" t="inlineStr">
         <is>
           <t>26%</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="97" t="inlineStr">
+      <c r="A6" s="99" t="inlineStr">
         <is>
           <t>每股收益 (EPS)</t>
         </is>
       </c>
-      <c r="B6" s="97" t="inlineStr">
+      <c r="B6" s="99" t="inlineStr">
         <is>
           <t>0.10</t>
         </is>
       </c>
-      <c r="C6" s="97" t="inlineStr">
+      <c r="C6" s="99" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="D6" s="97" t="inlineStr">
+      <c r="D6" s="99" t="inlineStr">
         <is>
           <t>0.15</t>
         </is>
       </c>
-      <c r="E6" s="97" t="inlineStr">
+      <c r="E6" s="99" t="inlineStr">
         <is>
           <t>0.17</t>
         </is>
       </c>
-      <c r="F6" s="97" t="inlineStr">
+      <c r="F6" s="99" t="inlineStr">
         <is>
           <t>0.21</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="97" t="inlineStr">
+      <c r="A7" s="99" t="inlineStr">
         <is>
           <t>市盈率 (P/E)</t>
         </is>
       </c>
-      <c r="B7" s="97" t="inlineStr">
+      <c r="B7" s="99" t="inlineStr">
         <is>
           <t>23.9</t>
         </is>
       </c>
-      <c r="C7" s="97" t="inlineStr">
+      <c r="C7" s="99" t="inlineStr">
         <is>
           <t>19.7</t>
         </is>
       </c>
-      <c r="D7" s="97" t="inlineStr">
+      <c r="D7" s="99" t="inlineStr">
         <is>
           <t>16.5</t>
         </is>
       </c>
-      <c r="E7" s="97" t="inlineStr">
+      <c r="E7" s="99" t="inlineStr">
         <is>
           <t>14.4</t>
         </is>
       </c>
-      <c r="F7" s="97" t="inlineStr">
+      <c r="F7" s="99" t="inlineStr">
         <is>
           <t>11.5</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="97" t="inlineStr">
+      <c r="A8" s="99" t="inlineStr">
         <is>
           <t>市净率(P/B)</t>
         </is>
       </c>
-      <c r="B8" s="97" t="inlineStr">
+      <c r="B8" s="99" t="inlineStr">
         <is>
           <t>4.7</t>
         </is>
       </c>
-      <c r="C8" s="97" t="inlineStr">
+      <c r="C8" s="99" t="inlineStr">
         <is>
           <t>3.7</t>
         </is>
       </c>
-      <c r="D8" s="97" t="inlineStr">
+      <c r="D8" s="99" t="inlineStr">
         <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="E8" s="97" t="inlineStr">
+      <c r="E8" s="99" t="inlineStr">
         <is>
           <t>2.5</t>
         </is>
       </c>
-      <c r="F8" s="97" t="inlineStr">
+      <c r="F8" s="99" t="inlineStr">
         <is>
           <t>2.1</t>
         </is>

--- a/kvision/ksample/mytable/docmind/002_90afe.xlsx
+++ b/kvision/ksample/mytable/docmind/002_90afe.xlsx
@@ -39,7 +39,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -143,11 +143,25 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00101010"/>
+      </left>
+      <right style="thin">
+        <color rgb="00101010"/>
+      </right>
+      <top style="thin">
+        <color rgb="00101010"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00101010"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -444,6 +458,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -827,252 +847,252 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="98" t="n"/>
-      <c r="B1" s="99" t="inlineStr">
+      <c r="A1" s="100" t="n"/>
+      <c r="B1" s="101" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="C1" s="99" t="inlineStr">
+      <c r="C1" s="101" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="D1" s="99" t="inlineStr">
+      <c r="D1" s="101" t="inlineStr">
         <is>
           <t>2018E</t>
         </is>
       </c>
-      <c r="E1" s="99" t="inlineStr">
+      <c r="E1" s="101" t="inlineStr">
         <is>
           <t>2019E</t>
         </is>
       </c>
-      <c r="F1" s="99" t="inlineStr">
+      <c r="F1" s="101" t="inlineStr">
         <is>
           <t>2020E</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="99" t="inlineStr">
+      <c r="A2" s="101" t="inlineStr">
         <is>
           <t>营业收入(百万元)</t>
         </is>
       </c>
-      <c r="B2" s="99" t="inlineStr">
+      <c r="B2" s="101" t="inlineStr">
         <is>
           <t>119</t>
         </is>
       </c>
-      <c r="C2" s="99" t="inlineStr">
+      <c r="C2" s="101" t="inlineStr">
         <is>
           <t>126</t>
         </is>
       </c>
-      <c r="D2" s="99" t="inlineStr">
+      <c r="D2" s="101" t="inlineStr">
         <is>
           <t>128</t>
         </is>
       </c>
-      <c r="E2" s="99" t="inlineStr">
+      <c r="E2" s="101" t="inlineStr">
         <is>
           <t>141</t>
         </is>
       </c>
-      <c r="F2" s="99" t="inlineStr">
+      <c r="F2" s="101" t="inlineStr">
         <is>
           <t>161</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="99" t="inlineStr">
+      <c r="A3" s="101" t="inlineStr">
         <is>
           <t>增长率(%)</t>
         </is>
       </c>
-      <c r="B3" s="99" t="inlineStr">
+      <c r="B3" s="101" t="inlineStr">
         <is>
           <t>7%</t>
         </is>
       </c>
-      <c r="C3" s="99" t="inlineStr">
+      <c r="C3" s="101" t="inlineStr">
         <is>
           <t>7%</t>
         </is>
       </c>
-      <c r="D3" s="99" t="inlineStr">
+      <c r="D3" s="101" t="inlineStr">
         <is>
           <t>1%</t>
         </is>
       </c>
-      <c r="E3" s="99" t="inlineStr">
+      <c r="E3" s="101" t="inlineStr">
         <is>
           <t>11%</t>
         </is>
       </c>
-      <c r="F3" s="99" t="inlineStr">
+      <c r="F3" s="101" t="inlineStr">
         <is>
           <t>14%</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="99" t="inlineStr">
+      <c r="A4" s="101" t="inlineStr">
         <is>
           <t>净利润(百万元)</t>
         </is>
       </c>
-      <c r="B4" s="99" t="inlineStr">
+      <c r="B4" s="101" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="C4" s="99" t="inlineStr">
+      <c r="C4" s="101" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="D4" s="99" t="inlineStr">
+      <c r="D4" s="101" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="E4" s="99" t="inlineStr">
+      <c r="E4" s="101" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="F4" s="99" t="inlineStr">
+      <c r="F4" s="101" t="inlineStr">
         <is>
           <t>76</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="99" t="inlineStr">
+      <c r="A5" s="101" t="inlineStr">
         <is>
           <t>增长率(%)</t>
         </is>
       </c>
-      <c r="B5" s="99" t="inlineStr">
+      <c r="B5" s="101" t="inlineStr">
         <is>
           <t>-120%</t>
         </is>
       </c>
-      <c r="C5" s="99" t="inlineStr">
+      <c r="C5" s="101" t="inlineStr">
         <is>
           <t>21%</t>
         </is>
       </c>
-      <c r="D5" s="99" t="inlineStr">
+      <c r="D5" s="101" t="inlineStr">
         <is>
           <t>21%</t>
         </is>
       </c>
-      <c r="E5" s="99" t="inlineStr">
+      <c r="E5" s="101" t="inlineStr">
         <is>
           <t>15%</t>
         </is>
       </c>
-      <c r="F5" s="99" t="inlineStr">
+      <c r="F5" s="101" t="inlineStr">
         <is>
           <t>26%</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="99" t="inlineStr">
+      <c r="A6" s="101" t="inlineStr">
         <is>
           <t>每股收益 (EPS)</t>
         </is>
       </c>
-      <c r="B6" s="99" t="inlineStr">
+      <c r="B6" s="101" t="inlineStr">
         <is>
           <t>0.10</t>
         </is>
       </c>
-      <c r="C6" s="99" t="inlineStr">
+      <c r="C6" s="101" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="D6" s="99" t="inlineStr">
+      <c r="D6" s="101" t="inlineStr">
         <is>
           <t>0.15</t>
         </is>
       </c>
-      <c r="E6" s="99" t="inlineStr">
+      <c r="E6" s="101" t="inlineStr">
         <is>
           <t>0.17</t>
         </is>
       </c>
-      <c r="F6" s="99" t="inlineStr">
+      <c r="F6" s="101" t="inlineStr">
         <is>
           <t>0.21</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="99" t="inlineStr">
+      <c r="A7" s="101" t="inlineStr">
         <is>
           <t>市盈率 (P/E)</t>
         </is>
       </c>
-      <c r="B7" s="99" t="inlineStr">
+      <c r="B7" s="101" t="inlineStr">
         <is>
           <t>23.9</t>
         </is>
       </c>
-      <c r="C7" s="99" t="inlineStr">
+      <c r="C7" s="101" t="inlineStr">
         <is>
           <t>19.7</t>
         </is>
       </c>
-      <c r="D7" s="99" t="inlineStr">
+      <c r="D7" s="101" t="inlineStr">
         <is>
           <t>16.5</t>
         </is>
       </c>
-      <c r="E7" s="99" t="inlineStr">
+      <c r="E7" s="101" t="inlineStr">
         <is>
           <t>14.4</t>
         </is>
       </c>
-      <c r="F7" s="99" t="inlineStr">
+      <c r="F7" s="101" t="inlineStr">
         <is>
           <t>11.5</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="99" t="inlineStr">
+      <c r="A8" s="101" t="inlineStr">
         <is>
           <t>市净率(P/B)</t>
         </is>
       </c>
-      <c r="B8" s="99" t="inlineStr">
+      <c r="B8" s="101" t="inlineStr">
         <is>
           <t>4.7</t>
         </is>
       </c>
-      <c r="C8" s="99" t="inlineStr">
+      <c r="C8" s="101" t="inlineStr">
         <is>
           <t>3.7</t>
         </is>
       </c>
-      <c r="D8" s="99" t="inlineStr">
+      <c r="D8" s="101" t="inlineStr">
         <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="E8" s="99" t="inlineStr">
+      <c r="E8" s="101" t="inlineStr">
         <is>
           <t>2.5</t>
         </is>
       </c>
-      <c r="F8" s="99" t="inlineStr">
+      <c r="F8" s="101" t="inlineStr">
         <is>
           <t>2.1</t>
         </is>
